--- a/数据_2023-09-30.xlsx
+++ b/数据_2023-09-30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F151"/>
+  <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,12 +456,22 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>贷款金额</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>风险笔数</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>客户数量</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>收入金额</t>
         </is>
       </c>
     </row>
@@ -482,13 +492,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>144764.37</v>
+        <v>346935.11</v>
       </c>
       <c r="E2" t="n">
-        <v>15</v>
+        <v>394588.49</v>
       </c>
       <c r="F2" t="n">
-        <v>22</v>
+        <v>44</v>
+      </c>
+      <c r="G2" t="n">
+        <v>99</v>
+      </c>
+      <c r="H2" t="n">
+        <v>268192.97</v>
       </c>
     </row>
     <row r="3">
@@ -499,28 +515,34 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>华东区</t>
+          <t>西部区</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>高风险</t>
+          <t>低风险</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>216741.69</v>
+        <v>5591.07</v>
       </c>
       <c r="E3" t="n">
+        <v>302142.12</v>
+      </c>
+      <c r="F3" t="n">
         <v>2</v>
       </c>
-      <c r="F3" t="n">
-        <v>16</v>
+      <c r="G3" t="n">
+        <v>76</v>
+      </c>
+      <c r="H3" t="n">
+        <v>63657.11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>产品线B</t>
+          <t>产品线D</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -530,23 +552,29 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>高风险</t>
+          <t>中风险</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>304989.18</v>
+        <v>685658.27</v>
       </c>
       <c r="E4" t="n">
-        <v>36</v>
+        <v>78292.66</v>
       </c>
       <c r="F4" t="n">
-        <v>30</v>
+        <v>11</v>
+      </c>
+      <c r="G4" t="n">
+        <v>94</v>
+      </c>
+      <c r="H4" t="n">
+        <v>129671.25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>产品线D</t>
+          <t>产品线C</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -556,95 +584,119 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中风险</t>
+          <t>低风险</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>298740.19</v>
+        <v>261326.17</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>1838507.32</v>
       </c>
       <c r="F5" t="n">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="G5" t="n">
+        <v>82</v>
+      </c>
+      <c r="H5" t="n">
+        <v>83033.66</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>产品线D</t>
+          <t>产品线A</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>华北区</t>
+          <t>西部区</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中风险</t>
+          <t>高风险</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>86184.95</v>
+        <v>48682.67</v>
       </c>
       <c r="E6" t="n">
-        <v>49</v>
+        <v>1775800.69</v>
       </c>
       <c r="F6" t="n">
-        <v>48</v>
+        <v>19</v>
+      </c>
+      <c r="G6" t="n">
+        <v>85</v>
+      </c>
+      <c r="H6" t="n">
+        <v>187463.33</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>产品线A</t>
+          <t>产品线C</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>华东区</t>
+          <t>华南区</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中风险</t>
+          <t>高风险</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>57391.02</v>
+        <v>3245.39</v>
       </c>
       <c r="E7" t="n">
-        <v>23</v>
+        <v>409227.34</v>
       </c>
       <c r="F7" t="n">
-        <v>82</v>
+        <v>6</v>
+      </c>
+      <c r="G7" t="n">
+        <v>34</v>
+      </c>
+      <c r="H7" t="n">
+        <v>260612.68</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>产品线C</t>
+          <t>产品线D</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>华东区</t>
+          <t>华北区</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>高风险</t>
+          <t>中风险</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>235118.19</v>
+        <v>297592.46</v>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>709507.03</v>
       </c>
       <c r="F8" t="n">
-        <v>53</v>
+        <v>18</v>
+      </c>
+      <c r="G8" t="n">
+        <v>94</v>
+      </c>
+      <c r="H8" t="n">
+        <v>281313.1</v>
       </c>
     </row>
     <row r="9">
@@ -655,7 +707,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>华北区</t>
+          <t>华南区</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -664,19 +716,25 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>313074.68</v>
+        <v>74510.37</v>
       </c>
       <c r="E9" t="n">
-        <v>24</v>
+        <v>2444817.39</v>
       </c>
       <c r="F9" t="n">
-        <v>78</v>
+        <v>41</v>
+      </c>
+      <c r="G9" t="n">
+        <v>93</v>
+      </c>
+      <c r="H9" t="n">
+        <v>169300.17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>产品线B</t>
+          <t>产品线C</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -690,19 +748,25 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>334019.03</v>
+        <v>40447.24</v>
       </c>
       <c r="E10" t="n">
-        <v>50</v>
+        <v>2437093.07</v>
       </c>
       <c r="F10" t="n">
-        <v>42</v>
+        <v>14</v>
+      </c>
+      <c r="G10" t="n">
+        <v>77</v>
+      </c>
+      <c r="H10" t="n">
+        <v>263528.45</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>产品线A</t>
+          <t>产品线C</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -712,17 +776,23 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>低风险</t>
+          <t>高风险</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>196261.85</v>
+        <v>1274758.28</v>
       </c>
       <c r="E11" t="n">
-        <v>30</v>
+        <v>2000050.57</v>
       </c>
       <c r="F11" t="n">
-        <v>86</v>
+        <v>9</v>
+      </c>
+      <c r="G11" t="n">
+        <v>36</v>
+      </c>
+      <c r="H11" t="n">
+        <v>224771.75</v>
       </c>
     </row>
     <row r="12">
@@ -733,28 +803,34 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>华南区</t>
+          <t>西部区</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中风险</t>
+          <t>高风险</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>184082.64</v>
+        <v>1234395.73</v>
       </c>
       <c r="E12" t="n">
-        <v>43</v>
+        <v>303810.52</v>
       </c>
       <c r="F12" t="n">
-        <v>39</v>
+        <v>6</v>
+      </c>
+      <c r="G12" t="n">
+        <v>11</v>
+      </c>
+      <c r="H12" t="n">
+        <v>259025.36</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>产品线A</t>
+          <t>产品线B</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -768,24 +844,30 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>367272.13</v>
+        <v>1515690.84</v>
       </c>
       <c r="E13" t="n">
-        <v>11</v>
+        <v>2835667.5</v>
       </c>
       <c r="F13" t="n">
-        <v>64</v>
+        <v>30</v>
+      </c>
+      <c r="G13" t="n">
+        <v>72</v>
+      </c>
+      <c r="H13" t="n">
+        <v>79167.17</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>产品线D</t>
+          <t>产品线A</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>华北区</t>
+          <t>华东区</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -794,13 +876,19 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>347199.36</v>
+        <v>661159.24</v>
       </c>
       <c r="E14" t="n">
-        <v>15</v>
+        <v>611552.17</v>
       </c>
       <c r="F14" t="n">
-        <v>92</v>
+        <v>28</v>
+      </c>
+      <c r="G14" t="n">
+        <v>25</v>
+      </c>
+      <c r="H14" t="n">
+        <v>138848.49</v>
       </c>
     </row>
     <row r="15">
@@ -811,22 +899,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>华东区</t>
+          <t>华南区</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>低风险</t>
+          <t>高风险</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>412683.27</v>
+        <v>43655.41</v>
       </c>
       <c r="E15" t="n">
-        <v>21</v>
+        <v>1341669.35</v>
       </c>
       <c r="F15" t="n">
-        <v>56</v>
+        <v>33</v>
+      </c>
+      <c r="G15" t="n">
+        <v>82</v>
+      </c>
+      <c r="H15" t="n">
+        <v>63678.78</v>
       </c>
     </row>
     <row r="16">
@@ -837,106 +931,130 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>华东区</t>
+          <t>华南区</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>低风险</t>
+          <t>高风险</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>457436.7</v>
+        <v>30348.28</v>
       </c>
       <c r="E16" t="n">
-        <v>37</v>
+        <v>1568168.6</v>
       </c>
       <c r="F16" t="n">
-        <v>96</v>
+        <v>24</v>
+      </c>
+      <c r="G16" t="n">
+        <v>44</v>
+      </c>
+      <c r="H16" t="n">
+        <v>75638.42999999999</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>产品线C</t>
+          <t>产品线B</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>华南区</t>
+          <t>华东区</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>高风险</t>
+          <t>低风险</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>254623.32</v>
+        <v>1779227.9</v>
       </c>
       <c r="E17" t="n">
-        <v>42</v>
+        <v>151356.59</v>
       </c>
       <c r="F17" t="n">
-        <v>63</v>
+        <v>31</v>
+      </c>
+      <c r="G17" t="n">
+        <v>75</v>
+      </c>
+      <c r="H17" t="n">
+        <v>53712.45</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>产品线B</t>
+          <t>产品线D</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>华北区</t>
+          <t>华南区</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>低风险</t>
+          <t>高风险</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>130847.48</v>
+        <v>156942.35</v>
       </c>
       <c r="E18" t="n">
-        <v>36</v>
+        <v>4983022.75</v>
       </c>
       <c r="F18" t="n">
-        <v>73</v>
+        <v>42</v>
+      </c>
+      <c r="G18" t="n">
+        <v>52</v>
+      </c>
+      <c r="H18" t="n">
+        <v>134239.52</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>产品线C</t>
+          <t>产品线D</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>西部区</t>
+          <t>华东区</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>高风险</t>
+          <t>低风险</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>205706.25</v>
+        <v>59603.88</v>
       </c>
       <c r="E19" t="n">
+        <v>62947.78</v>
+      </c>
+      <c r="F19" t="n">
         <v>15</v>
       </c>
-      <c r="F19" t="n">
-        <v>22</v>
+      <c r="G19" t="n">
+        <v>80</v>
+      </c>
+      <c r="H19" t="n">
+        <v>69964.13</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>产品线D</t>
+          <t>产品线A</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -950,13 +1068,19 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>431940.43</v>
+        <v>45365.58</v>
       </c>
       <c r="E20" t="n">
-        <v>10</v>
+        <v>570857.35</v>
       </c>
       <c r="F20" t="n">
-        <v>85</v>
+        <v>16</v>
+      </c>
+      <c r="G20" t="n">
+        <v>40</v>
+      </c>
+      <c r="H20" t="n">
+        <v>202348.44</v>
       </c>
     </row>
     <row r="21">
@@ -967,7 +1091,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>西部区</t>
+          <t>华南区</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -976,13 +1100,19 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>41128.58</v>
+        <v>1091596.69</v>
       </c>
       <c r="E21" t="n">
-        <v>25</v>
+        <v>4326239.49</v>
       </c>
       <c r="F21" t="n">
-        <v>81</v>
+        <v>13</v>
+      </c>
+      <c r="G21" t="n">
+        <v>17</v>
+      </c>
+      <c r="H21" t="n">
+        <v>33594.59</v>
       </c>
     </row>
     <row r="22">
@@ -998,49 +1128,61 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>高风险</t>
+          <t>中风险</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>431782.05</v>
+        <v>1360429.6</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>70602.81</v>
       </c>
       <c r="F22" t="n">
-        <v>92</v>
+        <v>42</v>
+      </c>
+      <c r="G22" t="n">
+        <v>17</v>
+      </c>
+      <c r="H22" t="n">
+        <v>22880.74</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>产品线A</t>
+          <t>产品线C</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>华北区</t>
+          <t>华东区</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>高风险</t>
+          <t>低风险</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>176685.98</v>
+        <v>78531.34</v>
       </c>
       <c r="E23" t="n">
-        <v>19</v>
+        <v>1990638.04</v>
       </c>
       <c r="F23" t="n">
-        <v>60</v>
+        <v>12</v>
+      </c>
+      <c r="G23" t="n">
+        <v>40</v>
+      </c>
+      <c r="H23" t="n">
+        <v>141475.28</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>产品线B</t>
+          <t>产品线A</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1050,54 +1192,66 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>低风险</t>
+          <t>高风险</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>477369.8</v>
+        <v>3478.83</v>
       </c>
       <c r="E24" t="n">
-        <v>47</v>
+        <v>97209.66</v>
       </c>
       <c r="F24" t="n">
-        <v>38</v>
+        <v>49</v>
+      </c>
+      <c r="G24" t="n">
+        <v>35</v>
+      </c>
+      <c r="H24" t="n">
+        <v>54061.78</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>产品线B</t>
+          <t>产品线D</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>华东区</t>
+          <t>西部区</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>高风险</t>
+          <t>低风险</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>156237.95</v>
+        <v>1882931.44</v>
       </c>
       <c r="E25" t="n">
-        <v>41</v>
+        <v>251589.25</v>
       </c>
       <c r="F25" t="n">
-        <v>69</v>
+        <v>25</v>
+      </c>
+      <c r="G25" t="n">
+        <v>38</v>
+      </c>
+      <c r="H25" t="n">
+        <v>278322.83</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>产品线B</t>
+          <t>产品线D</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>华南区</t>
+          <t>华北区</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1106,13 +1260,19 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>383630.29</v>
+        <v>985756.1899999999</v>
       </c>
       <c r="E26" t="n">
-        <v>35</v>
+        <v>717700.9</v>
       </c>
       <c r="F26" t="n">
-        <v>72</v>
+        <v>4</v>
+      </c>
+      <c r="G26" t="n">
+        <v>79</v>
+      </c>
+      <c r="H26" t="n">
+        <v>222042.47</v>
       </c>
     </row>
     <row r="27">
@@ -1128,23 +1288,29 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>中风险</t>
+          <t>低风险</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>19543.6</v>
+        <v>29624.7</v>
       </c>
       <c r="E27" t="n">
-        <v>24</v>
+        <v>122751.83</v>
       </c>
       <c r="F27" t="n">
-        <v>44</v>
+        <v>33</v>
+      </c>
+      <c r="G27" t="n">
+        <v>15</v>
+      </c>
+      <c r="H27" t="n">
+        <v>256146.05</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>产品线B</t>
+          <t>产品线A</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1154,54 +1320,66 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>低风险</t>
+          <t>高风险</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>440224.7</v>
+        <v>110566.33</v>
       </c>
       <c r="E28" t="n">
-        <v>6</v>
+        <v>331567.62</v>
       </c>
       <c r="F28" t="n">
-        <v>15</v>
+        <v>3</v>
+      </c>
+      <c r="G28" t="n">
+        <v>84</v>
+      </c>
+      <c r="H28" t="n">
+        <v>29185.1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>产品线D</t>
+          <t>产品线C</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>华东区</t>
+          <t>华北区</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>高风险</t>
+          <t>低风险</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>385258.87</v>
+        <v>343211.57</v>
       </c>
       <c r="E29" t="n">
-        <v>9</v>
+        <v>1958073.99</v>
       </c>
       <c r="F29" t="n">
-        <v>89</v>
+        <v>42</v>
+      </c>
+      <c r="G29" t="n">
+        <v>43</v>
+      </c>
+      <c r="H29" t="n">
+        <v>139881.25</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>产品线D</t>
+          <t>产品线A</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>华南区</t>
+          <t>华东区</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1210,13 +1388,19 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>268560.16</v>
+        <v>4589.78</v>
       </c>
       <c r="E30" t="n">
-        <v>39</v>
+        <v>302353.88</v>
       </c>
       <c r="F30" t="n">
-        <v>59</v>
+        <v>9</v>
+      </c>
+      <c r="G30" t="n">
+        <v>49</v>
+      </c>
+      <c r="H30" t="n">
+        <v>264854.93</v>
       </c>
     </row>
     <row r="31">
@@ -1227,22 +1411,28 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>华南区</t>
+          <t>华北区</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>高风险</t>
+          <t>中风险</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>162740.98</v>
+        <v>115727.69</v>
       </c>
       <c r="E31" t="n">
-        <v>43</v>
+        <v>1111677.77</v>
       </c>
       <c r="F31" t="n">
-        <v>88</v>
+        <v>42</v>
+      </c>
+      <c r="G31" t="n">
+        <v>72</v>
+      </c>
+      <c r="H31" t="n">
+        <v>7307.82</v>
       </c>
     </row>
     <row r="32">
@@ -1253,28 +1443,34 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>西部区</t>
+          <t>华东区</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>高风险</t>
+          <t>低风险</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>231228.21</v>
+        <v>269257.2</v>
       </c>
       <c r="E32" t="n">
-        <v>16</v>
+        <v>76817.5</v>
       </c>
       <c r="F32" t="n">
-        <v>33</v>
+        <v>10</v>
+      </c>
+      <c r="G32" t="n">
+        <v>39</v>
+      </c>
+      <c r="H32" t="n">
+        <v>88118.10000000001</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>产品线A</t>
+          <t>产品线B</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1288,19 +1484,25 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>298271.27</v>
+        <v>503245.43</v>
       </c>
       <c r="E33" t="n">
-        <v>15</v>
+        <v>1405336.49</v>
       </c>
       <c r="F33" t="n">
-        <v>80</v>
+        <v>4</v>
+      </c>
+      <c r="G33" t="n">
+        <v>16</v>
+      </c>
+      <c r="H33" t="n">
+        <v>192113.91</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>产品线B</t>
+          <t>产品线C</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1314,13 +1516,19 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>356842.06</v>
+        <v>662671.53</v>
       </c>
       <c r="E34" t="n">
-        <v>4</v>
+        <v>661581.98</v>
       </c>
       <c r="F34" t="n">
-        <v>34</v>
+        <v>29</v>
+      </c>
+      <c r="G34" t="n">
+        <v>75</v>
+      </c>
+      <c r="H34" t="n">
+        <v>213171.9</v>
       </c>
     </row>
     <row r="35">
@@ -1336,43 +1544,55 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>中风险</t>
+          <t>低风险</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>44720.1</v>
+        <v>131838.54</v>
       </c>
       <c r="E35" t="n">
-        <v>16</v>
+        <v>1082509.57</v>
       </c>
       <c r="F35" t="n">
-        <v>40</v>
+        <v>10</v>
+      </c>
+      <c r="G35" t="n">
+        <v>60</v>
+      </c>
+      <c r="H35" t="n">
+        <v>42596.43</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>产品线D</t>
+          <t>产品线C</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>华南区</t>
+          <t>华北区</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>高风险</t>
+          <t>低风险</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>74832.81</v>
+        <v>326045.92</v>
       </c>
       <c r="E36" t="n">
-        <v>37</v>
+        <v>366773.36</v>
       </c>
       <c r="F36" t="n">
-        <v>78</v>
+        <v>23</v>
+      </c>
+      <c r="G36" t="n">
+        <v>76</v>
+      </c>
+      <c r="H36" t="n">
+        <v>265819.74</v>
       </c>
     </row>
     <row r="37">
@@ -1388,23 +1608,29 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>中风险</t>
+          <t>低风险</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>405673.53</v>
+        <v>196430.9</v>
       </c>
       <c r="E37" t="n">
-        <v>13</v>
+        <v>452566.48</v>
       </c>
       <c r="F37" t="n">
-        <v>17</v>
+        <v>2</v>
+      </c>
+      <c r="G37" t="n">
+        <v>27</v>
+      </c>
+      <c r="H37" t="n">
+        <v>222286.52</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>产品线A</t>
+          <t>产品线C</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1414,179 +1640,221 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>中风险</t>
+          <t>高风险</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>217553.53</v>
+        <v>90020.86</v>
       </c>
       <c r="E38" t="n">
-        <v>30</v>
+        <v>44428.76</v>
       </c>
       <c r="F38" t="n">
-        <v>98</v>
+        <v>3</v>
+      </c>
+      <c r="G38" t="n">
+        <v>65</v>
+      </c>
+      <c r="H38" t="n">
+        <v>70617.95</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>产品线A</t>
+          <t>产品线D</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>华东区</t>
+          <t>华北区</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>低风险</t>
+          <t>中风险</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>207284.43</v>
+        <v>83438.53</v>
       </c>
       <c r="E39" t="n">
-        <v>22</v>
+        <v>259386.39</v>
       </c>
       <c r="F39" t="n">
         <v>18</v>
       </c>
+      <c r="G39" t="n">
+        <v>13</v>
+      </c>
+      <c r="H39" t="n">
+        <v>290232.29</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>产品线B</t>
+          <t>产品线C</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>华南区</t>
+          <t>华北区</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>低风险</t>
+          <t>高风险</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>272780.02</v>
+        <v>1615421.74</v>
       </c>
       <c r="E40" t="n">
-        <v>9</v>
+        <v>1439237.14</v>
       </c>
       <c r="F40" t="n">
-        <v>59</v>
+        <v>8</v>
+      </c>
+      <c r="G40" t="n">
+        <v>38</v>
+      </c>
+      <c r="H40" t="n">
+        <v>57677.51</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>产品线B</t>
+          <t>产品线C</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>华北区</t>
+          <t>华东区</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>中风险</t>
+          <t>低风险</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>132405.16</v>
+        <v>1214824.53</v>
       </c>
       <c r="E41" t="n">
-        <v>5</v>
+        <v>936393.88</v>
       </c>
       <c r="F41" t="n">
-        <v>61</v>
+        <v>33</v>
+      </c>
+      <c r="G41" t="n">
+        <v>19</v>
+      </c>
+      <c r="H41" t="n">
+        <v>118632.65</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>产品线A</t>
+          <t>产品线B</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>华东区</t>
+          <t>华北区</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>高风险</t>
+          <t>低风险</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>499648.41</v>
+        <v>802029.53</v>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>245688.59</v>
       </c>
       <c r="F42" t="n">
-        <v>16</v>
+        <v>5</v>
+      </c>
+      <c r="G42" t="n">
+        <v>90</v>
+      </c>
+      <c r="H42" t="n">
+        <v>276627.4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>产品线B</t>
+          <t>产品线C</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>华南区</t>
+          <t>华东区</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>中风险</t>
+          <t>高风险</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>247964.15</v>
+        <v>504273.5</v>
       </c>
       <c r="E43" t="n">
-        <v>14</v>
+        <v>2641640.17</v>
       </c>
       <c r="F43" t="n">
-        <v>56</v>
+        <v>45</v>
+      </c>
+      <c r="G43" t="n">
+        <v>42</v>
+      </c>
+      <c r="H43" t="n">
+        <v>168551.68</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>产品线A</t>
+          <t>产品线B</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>华南区</t>
+          <t>西部区</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>中风险</t>
+          <t>高风险</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>11056.14</v>
+        <v>1612781.53</v>
       </c>
       <c r="E44" t="n">
-        <v>25</v>
+        <v>346205.97</v>
       </c>
       <c r="F44" t="n">
-        <v>38</v>
+        <v>20</v>
+      </c>
+      <c r="G44" t="n">
+        <v>56</v>
+      </c>
+      <c r="H44" t="n">
+        <v>166641.48</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>产品线D</t>
+          <t>产品线A</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1600,13 +1868,19 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>351329.84</v>
+        <v>114483.22</v>
       </c>
       <c r="E45" t="n">
-        <v>47</v>
+        <v>964988.1899999999</v>
       </c>
       <c r="F45" t="n">
-        <v>76</v>
+        <v>29</v>
+      </c>
+      <c r="G45" t="n">
+        <v>91</v>
+      </c>
+      <c r="H45" t="n">
+        <v>68041.91</v>
       </c>
     </row>
     <row r="46">
@@ -1622,28 +1896,34 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>低风险</t>
+          <t>高风险</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>155386.83</v>
+        <v>14905.53</v>
       </c>
       <c r="E46" t="n">
-        <v>4</v>
+        <v>593387.2</v>
       </c>
       <c r="F46" t="n">
-        <v>79</v>
+        <v>49</v>
+      </c>
+      <c r="G46" t="n">
+        <v>35</v>
+      </c>
+      <c r="H46" t="n">
+        <v>203474.72</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>产品线A</t>
+          <t>产品线B</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>华北区</t>
+          <t>华南区</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1652,13 +1932,19 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>34569.75</v>
+        <v>3264.47</v>
       </c>
       <c r="E47" t="n">
-        <v>31</v>
+        <v>3639458.91</v>
       </c>
       <c r="F47" t="n">
-        <v>69</v>
+        <v>50</v>
+      </c>
+      <c r="G47" t="n">
+        <v>14</v>
+      </c>
+      <c r="H47" t="n">
+        <v>139347.77</v>
       </c>
     </row>
     <row r="48">
@@ -1669,28 +1955,34 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>华东区</t>
+          <t>西部区</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>高风险</t>
+          <t>中风险</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>49254.62</v>
+        <v>1092781.33</v>
       </c>
       <c r="E48" t="n">
-        <v>12</v>
+        <v>90339.38</v>
       </c>
       <c r="F48" t="n">
-        <v>13</v>
+        <v>50</v>
+      </c>
+      <c r="G48" t="n">
+        <v>18</v>
+      </c>
+      <c r="H48" t="n">
+        <v>234634.02</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>产品线A</t>
+          <t>产品线B</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1700,28 +1992,34 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>中风险</t>
+          <t>高风险</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>68744.44</v>
+        <v>860262.0600000001</v>
       </c>
       <c r="E49" t="n">
-        <v>37</v>
+        <v>466988.01</v>
       </c>
       <c r="F49" t="n">
-        <v>36</v>
+        <v>8</v>
+      </c>
+      <c r="G49" t="n">
+        <v>63</v>
+      </c>
+      <c r="H49" t="n">
+        <v>44335.04</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>产品线A</t>
+          <t>产品线D</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>华东区</t>
+          <t>华北区</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1730,19 +2028,25 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>332112.85</v>
+        <v>1796683</v>
       </c>
       <c r="E50" t="n">
-        <v>37</v>
+        <v>4640228.36</v>
       </c>
       <c r="F50" t="n">
-        <v>71</v>
+        <v>48</v>
+      </c>
+      <c r="G50" t="n">
+        <v>65</v>
+      </c>
+      <c r="H50" t="n">
+        <v>137770.58</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>产品线C</t>
+          <t>产品线B</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1752,17 +2056,23 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>低风险</t>
+          <t>高风险</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>338165.73</v>
+        <v>1552098.12</v>
       </c>
       <c r="E51" t="n">
-        <v>21</v>
+        <v>939872.59</v>
       </c>
       <c r="F51" t="n">
-        <v>35</v>
+        <v>46</v>
+      </c>
+      <c r="G51" t="n">
+        <v>41</v>
+      </c>
+      <c r="H51" t="n">
+        <v>74175.61</v>
       </c>
     </row>
     <row r="52">
@@ -1773,48 +2083,60 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>西部区</t>
+          <t>华北区</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>低风险</t>
+          <t>高风险</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>339128.21</v>
+        <v>7780.33</v>
       </c>
       <c r="E52" t="n">
-        <v>20</v>
+        <v>253214.12</v>
       </c>
       <c r="F52" t="n">
-        <v>63</v>
+        <v>10</v>
+      </c>
+      <c r="G52" t="n">
+        <v>95</v>
+      </c>
+      <c r="H52" t="n">
+        <v>68116.10000000001</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>产品线C</t>
+          <t>产品线D</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>华东区</t>
+          <t>西部区</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>低风险</t>
+          <t>中风险</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>234559.91</v>
+        <v>1298929.08</v>
       </c>
       <c r="E53" t="n">
-        <v>37</v>
+        <v>433156.47</v>
       </c>
       <c r="F53" t="n">
-        <v>17</v>
+        <v>25</v>
+      </c>
+      <c r="G53" t="n">
+        <v>79</v>
+      </c>
+      <c r="H53" t="n">
+        <v>284088.3</v>
       </c>
     </row>
     <row r="54">
@@ -1825,22 +2147,28 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>华南区</t>
+          <t>西部区</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>高风险</t>
+          <t>中风险</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>139948.2</v>
+        <v>47194.34</v>
       </c>
       <c r="E54" t="n">
-        <v>23</v>
+        <v>1253475.13</v>
       </c>
       <c r="F54" t="n">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="G54" t="n">
+        <v>73</v>
+      </c>
+      <c r="H54" t="n">
+        <v>225517.12</v>
       </c>
     </row>
     <row r="55">
@@ -1851,59 +2179,71 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>华北区</t>
+          <t>西部区</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>中风险</t>
+          <t>低风险</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>87295.95</v>
+        <v>461501.59</v>
       </c>
       <c r="E55" t="n">
-        <v>35</v>
+        <v>44997.15</v>
       </c>
       <c r="F55" t="n">
-        <v>95</v>
+        <v>43</v>
+      </c>
+      <c r="G55" t="n">
+        <v>91</v>
+      </c>
+      <c r="H55" t="n">
+        <v>240451.99</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>产品线C</t>
+          <t>产品线B</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>华东区</t>
+          <t>西部区</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>高风险</t>
+          <t>低风险</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>410381.03</v>
+        <v>45439.51</v>
       </c>
       <c r="E56" t="n">
-        <v>20</v>
+        <v>17555.27</v>
       </c>
       <c r="F56" t="n">
-        <v>89</v>
+        <v>28</v>
+      </c>
+      <c r="G56" t="n">
+        <v>22</v>
+      </c>
+      <c r="H56" t="n">
+        <v>260721.15</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>产品线A</t>
+          <t>产品线B</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>华南区</t>
+          <t>华东区</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1912,19 +2252,25 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>66560.05</v>
+        <v>1192823.2</v>
       </c>
       <c r="E57" t="n">
-        <v>7</v>
+        <v>2643960.32</v>
       </c>
       <c r="F57" t="n">
-        <v>100</v>
+        <v>49</v>
+      </c>
+      <c r="G57" t="n">
+        <v>53</v>
+      </c>
+      <c r="H57" t="n">
+        <v>87085.7</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>产品线B</t>
+          <t>产品线D</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1934,101 +2280,125 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>中风险</t>
+          <t>低风险</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>306366.62</v>
+        <v>823259.9399999999</v>
       </c>
       <c r="E58" t="n">
-        <v>46</v>
+        <v>99991.7</v>
       </c>
       <c r="F58" t="n">
-        <v>48</v>
+        <v>23</v>
+      </c>
+      <c r="G58" t="n">
+        <v>33</v>
+      </c>
+      <c r="H58" t="n">
+        <v>196792.51</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>产品线B</t>
+          <t>产品线A</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>华北区</t>
+          <t>华东区</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>高风险</t>
+          <t>低风险</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>249380.61</v>
+        <v>175884.33</v>
       </c>
       <c r="E59" t="n">
-        <v>4</v>
+        <v>195417.98</v>
       </c>
       <c r="F59" t="n">
-        <v>16</v>
+        <v>31</v>
+      </c>
+      <c r="G59" t="n">
+        <v>90</v>
+      </c>
+      <c r="H59" t="n">
+        <v>38744.89</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>产品线D</t>
+          <t>产品线B</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>华北区</t>
+          <t>西部区</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>低风险</t>
+          <t>高风险</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>11737.39</v>
+        <v>660138.86</v>
       </c>
       <c r="E60" t="n">
-        <v>50</v>
+        <v>342357.08</v>
       </c>
       <c r="F60" t="n">
-        <v>21</v>
+        <v>48</v>
+      </c>
+      <c r="G60" t="n">
+        <v>96</v>
+      </c>
+      <c r="H60" t="n">
+        <v>38787.2</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>产品线C</t>
+          <t>产品线B</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>华南区</t>
+          <t>华北区</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>高风险</t>
+          <t>低风险</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>226499.4</v>
+        <v>46515.47</v>
       </c>
       <c r="E61" t="n">
+        <v>2888290.55</v>
+      </c>
+      <c r="F61" t="n">
         <v>46</v>
       </c>
-      <c r="F61" t="n">
-        <v>59</v>
+      <c r="G61" t="n">
+        <v>30</v>
+      </c>
+      <c r="H61" t="n">
+        <v>27418.96</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>产品线A</t>
+          <t>产品线B</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2038,23 +2408,29 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>低风险</t>
+          <t>高风险</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>473074.96</v>
+        <v>710175.9399999999</v>
       </c>
       <c r="E62" t="n">
-        <v>45</v>
+        <v>81660.45</v>
       </c>
       <c r="F62" t="n">
-        <v>24</v>
+        <v>37</v>
+      </c>
+      <c r="G62" t="n">
+        <v>10</v>
+      </c>
+      <c r="H62" t="n">
+        <v>107425.11</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>产品线A</t>
+          <t>产品线D</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2064,28 +2440,34 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>高风险</t>
+          <t>低风险</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>280737.3</v>
+        <v>207591.29</v>
       </c>
       <c r="E63" t="n">
-        <v>28</v>
+        <v>4378158.21</v>
       </c>
       <c r="F63" t="n">
-        <v>21</v>
+        <v>7</v>
+      </c>
+      <c r="G63" t="n">
+        <v>60</v>
+      </c>
+      <c r="H63" t="n">
+        <v>288432.33</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>产品线A</t>
+          <t>产品线D</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>华北区</t>
+          <t>华南区</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2094,39 +2476,51 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>450500.93</v>
+        <v>160069.3</v>
       </c>
       <c r="E64" t="n">
-        <v>3</v>
+        <v>1115912.35</v>
       </c>
       <c r="F64" t="n">
-        <v>50</v>
+        <v>35</v>
+      </c>
+      <c r="G64" t="n">
+        <v>66</v>
+      </c>
+      <c r="H64" t="n">
+        <v>142137.76</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>产品线B</t>
+          <t>产品线C</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>华南区</t>
+          <t>华北区</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>高风险</t>
+          <t>低风险</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>60368.87</v>
+        <v>14667.48</v>
       </c>
       <c r="E65" t="n">
-        <v>50</v>
+        <v>2353522.04</v>
       </c>
       <c r="F65" t="n">
-        <v>76</v>
+        <v>30</v>
+      </c>
+      <c r="G65" t="n">
+        <v>77</v>
+      </c>
+      <c r="H65" t="n">
+        <v>185047.85</v>
       </c>
     </row>
     <row r="66">
@@ -2137,7 +2531,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>华南区</t>
+          <t>华北区</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2146,24 +2540,30 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>433656.79</v>
+        <v>1821143.4</v>
       </c>
       <c r="E66" t="n">
-        <v>12</v>
+        <v>295019.97</v>
       </c>
       <c r="F66" t="n">
-        <v>57</v>
+        <v>23</v>
+      </c>
+      <c r="G66" t="n">
+        <v>38</v>
+      </c>
+      <c r="H66" t="n">
+        <v>105399.96</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>产品线A</t>
+          <t>产品线C</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>华南区</t>
+          <t>华东区</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2172,24 +2572,30 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>462998.77</v>
+        <v>62841.94</v>
       </c>
       <c r="E67" t="n">
-        <v>27</v>
+        <v>3210022.46</v>
       </c>
       <c r="F67" t="n">
-        <v>90</v>
+        <v>49</v>
+      </c>
+      <c r="G67" t="n">
+        <v>35</v>
+      </c>
+      <c r="H67" t="n">
+        <v>208729.76</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>产品线B</t>
+          <t>产品线D</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>华北区</t>
+          <t>西部区</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2198,50 +2604,62 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>395813.51</v>
+        <v>15417.54</v>
       </c>
       <c r="E68" t="n">
-        <v>7</v>
+        <v>3921255.04</v>
       </c>
       <c r="F68" t="n">
-        <v>53</v>
+        <v>20</v>
+      </c>
+      <c r="G68" t="n">
+        <v>89</v>
+      </c>
+      <c r="H68" t="n">
+        <v>176558.9</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>产品线A</t>
+          <t>产品线D</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>西部区</t>
+          <t>华北区</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>低风险</t>
+          <t>中风险</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>107790.69</v>
+        <v>411086.32</v>
       </c>
       <c r="E69" t="n">
-        <v>30</v>
+        <v>2448207.49</v>
       </c>
       <c r="F69" t="n">
-        <v>49</v>
+        <v>17</v>
+      </c>
+      <c r="G69" t="n">
+        <v>34</v>
+      </c>
+      <c r="H69" t="n">
+        <v>40593.49</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>产品线C</t>
+          <t>产品线B</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>华南区</t>
+          <t>华北区</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2250,45 +2668,57 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>21595.57</v>
+        <v>78731.14999999999</v>
       </c>
       <c r="E70" t="n">
-        <v>13</v>
+        <v>2467748.69</v>
       </c>
       <c r="F70" t="n">
-        <v>56</v>
+        <v>38</v>
+      </c>
+      <c r="G70" t="n">
+        <v>72</v>
+      </c>
+      <c r="H70" t="n">
+        <v>181053.27</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>产品线C</t>
+          <t>产品线A</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>华北区</t>
+          <t>华南区</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>低风险</t>
+          <t>中风险</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>483775.66</v>
+        <v>104132.16</v>
       </c>
       <c r="E71" t="n">
-        <v>18</v>
+        <v>514148.37</v>
       </c>
       <c r="F71" t="n">
-        <v>49</v>
+        <v>35</v>
+      </c>
+      <c r="G71" t="n">
+        <v>21</v>
+      </c>
+      <c r="H71" t="n">
+        <v>85921.84</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>产品线D</t>
+          <t>产品线A</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2298,49 +2728,61 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>低风险</t>
+          <t>高风险</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>66517.46000000001</v>
+        <v>145680.45</v>
       </c>
       <c r="E72" t="n">
-        <v>17</v>
+        <v>1859056.76</v>
       </c>
       <c r="F72" t="n">
-        <v>27</v>
+        <v>1</v>
+      </c>
+      <c r="G72" t="n">
+        <v>78</v>
+      </c>
+      <c r="H72" t="n">
+        <v>88880.10000000001</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>产品线C</t>
+          <t>产品线D</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>华东区</t>
+          <t>西部区</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>低风险</t>
+          <t>中风险</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>302319.91</v>
+        <v>194824.65</v>
       </c>
       <c r="E73" t="n">
-        <v>23</v>
+        <v>1441063.6</v>
       </c>
       <c r="F73" t="n">
-        <v>98</v>
+        <v>31</v>
+      </c>
+      <c r="G73" t="n">
+        <v>19</v>
+      </c>
+      <c r="H73" t="n">
+        <v>247524.12</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>产品线C</t>
+          <t>产品线D</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2350,106 +2792,130 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>高风险</t>
+          <t>低风险</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>492275.57</v>
+        <v>8434.620000000001</v>
       </c>
       <c r="E74" t="n">
-        <v>8</v>
+        <v>585180.91</v>
       </c>
       <c r="F74" t="n">
-        <v>54</v>
+        <v>16</v>
+      </c>
+      <c r="G74" t="n">
+        <v>20</v>
+      </c>
+      <c r="H74" t="n">
+        <v>169631.55</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>产品线B</t>
+          <t>产品线D</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>华北区</t>
+          <t>华南区</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>低风险</t>
+          <t>高风险</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>357304.79</v>
+        <v>1340617.36</v>
       </c>
       <c r="E75" t="n">
-        <v>1</v>
+        <v>2540735.96</v>
       </c>
       <c r="F75" t="n">
-        <v>71</v>
+        <v>38</v>
+      </c>
+      <c r="G75" t="n">
+        <v>59</v>
+      </c>
+      <c r="H75" t="n">
+        <v>95087.17</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>产品线B</t>
+          <t>产品线A</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>华北区</t>
+          <t>华东区</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>中风险</t>
+          <t>低风险</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>44287.17</v>
+        <v>89696.92</v>
       </c>
       <c r="E76" t="n">
-        <v>43</v>
+        <v>24135.14</v>
       </c>
       <c r="F76" t="n">
-        <v>47</v>
+        <v>12</v>
+      </c>
+      <c r="G76" t="n">
+        <v>75</v>
+      </c>
+      <c r="H76" t="n">
+        <v>27144.14</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>产品线C</t>
+          <t>产品线A</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>华东区</t>
+          <t>西部区</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>高风险</t>
+          <t>中风险</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>451022.95</v>
+        <v>1149511.15</v>
       </c>
       <c r="E77" t="n">
-        <v>33</v>
+        <v>215241.96</v>
       </c>
       <c r="F77" t="n">
-        <v>44</v>
+        <v>19</v>
+      </c>
+      <c r="G77" t="n">
+        <v>94</v>
+      </c>
+      <c r="H77" t="n">
+        <v>258583.99</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>产品线D</t>
+          <t>产品线A</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>华北区</t>
+          <t>华南区</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2458,13 +2924,19 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>351632.12</v>
+        <v>113770.84</v>
       </c>
       <c r="E78" t="n">
-        <v>36</v>
+        <v>359053.89</v>
       </c>
       <c r="F78" t="n">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="G78" t="n">
+        <v>23</v>
+      </c>
+      <c r="H78" t="n">
+        <v>26065.9</v>
       </c>
     </row>
     <row r="79">
@@ -2475,7 +2947,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>西部区</t>
+          <t>华北区</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2484,71 +2956,89 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>470778.2</v>
+        <v>463492.07</v>
       </c>
       <c r="E79" t="n">
-        <v>44</v>
+        <v>3910372.97</v>
       </c>
       <c r="F79" t="n">
-        <v>100</v>
+        <v>45</v>
+      </c>
+      <c r="G79" t="n">
+        <v>56</v>
+      </c>
+      <c r="H79" t="n">
+        <v>283089.49</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>产品线B</t>
+          <t>产品线D</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>华北区</t>
+          <t>西部区</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>中风险</t>
+          <t>低风险</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>278489.23</v>
+        <v>44581.72</v>
       </c>
       <c r="E80" t="n">
-        <v>1</v>
+        <v>1103713.64</v>
       </c>
       <c r="F80" t="n">
-        <v>43</v>
+        <v>2</v>
+      </c>
+      <c r="G80" t="n">
+        <v>16</v>
+      </c>
+      <c r="H80" t="n">
+        <v>72532.7</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>产品线C</t>
+          <t>产品线A</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>华南区</t>
+          <t>华北区</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>中风险</t>
+          <t>高风险</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>395021.83</v>
+        <v>38392.34</v>
       </c>
       <c r="E81" t="n">
-        <v>39</v>
+        <v>288200.33</v>
       </c>
       <c r="F81" t="n">
-        <v>88</v>
+        <v>42</v>
+      </c>
+      <c r="G81" t="n">
+        <v>61</v>
+      </c>
+      <c r="H81" t="n">
+        <v>275241.47</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>产品线C</t>
+          <t>产品线B</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2558,43 +3048,55 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>中风险</t>
+          <t>高风险</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>226658.3</v>
+        <v>1962866.28</v>
       </c>
       <c r="E82" t="n">
-        <v>14</v>
+        <v>2717863.7</v>
       </c>
       <c r="F82" t="n">
-        <v>70</v>
+        <v>22</v>
+      </c>
+      <c r="G82" t="n">
+        <v>46</v>
+      </c>
+      <c r="H82" t="n">
+        <v>202689.39</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>产品线D</t>
+          <t>产品线B</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>华南区</t>
+          <t>华北区</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>高风险</t>
+          <t>中风险</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>51549.81</v>
+        <v>1145861.35</v>
       </c>
       <c r="E83" t="n">
-        <v>33</v>
+        <v>4347481.12</v>
       </c>
       <c r="F83" t="n">
-        <v>89</v>
+        <v>36</v>
+      </c>
+      <c r="G83" t="n">
+        <v>9</v>
+      </c>
+      <c r="H83" t="n">
+        <v>139173.64</v>
       </c>
     </row>
     <row r="84">
@@ -2605,33 +3107,39 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>华东区</t>
+          <t>华北区</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>低风险</t>
+          <t>中风险</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>339669.88</v>
+        <v>48539.05</v>
       </c>
       <c r="E84" t="n">
-        <v>15</v>
+        <v>4527187.04</v>
       </c>
       <c r="F84" t="n">
-        <v>30</v>
+        <v>1</v>
+      </c>
+      <c r="G84" t="n">
+        <v>89</v>
+      </c>
+      <c r="H84" t="n">
+        <v>261463.41</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>产品线B</t>
+          <t>产品线D</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>华东区</t>
+          <t>西部区</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2640,24 +3148,30 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>129972.85</v>
+        <v>127765.91</v>
       </c>
       <c r="E85" t="n">
-        <v>31</v>
+        <v>3688930.6</v>
       </c>
       <c r="F85" t="n">
-        <v>83</v>
+        <v>49</v>
+      </c>
+      <c r="G85" t="n">
+        <v>11</v>
+      </c>
+      <c r="H85" t="n">
+        <v>65049.68</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>产品线A</t>
+          <t>产品线B</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>西部区</t>
+          <t>华北区</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2666,13 +3180,19 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>444207.09</v>
+        <v>945711.3</v>
       </c>
       <c r="E86" t="n">
-        <v>37</v>
+        <v>383913.13</v>
       </c>
       <c r="F86" t="n">
-        <v>29</v>
+        <v>20</v>
+      </c>
+      <c r="G86" t="n">
+        <v>75</v>
+      </c>
+      <c r="H86" t="n">
+        <v>9033.969999999999</v>
       </c>
     </row>
     <row r="87">
@@ -2683,33 +3203,39 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>西部区</t>
+          <t>华东区</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>中风险</t>
+          <t>低风险</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>129552.38</v>
+        <v>23610.95</v>
       </c>
       <c r="E87" t="n">
-        <v>42</v>
+        <v>68293.87</v>
       </c>
       <c r="F87" t="n">
-        <v>93</v>
+        <v>10</v>
+      </c>
+      <c r="G87" t="n">
+        <v>68</v>
+      </c>
+      <c r="H87" t="n">
+        <v>280132.65</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>产品线A</t>
+          <t>产品线C</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>华东区</t>
+          <t>华北区</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2718,19 +3244,25 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>117232.16</v>
+        <v>1976293.56</v>
       </c>
       <c r="E88" t="n">
-        <v>45</v>
+        <v>282714.59</v>
       </c>
       <c r="F88" t="n">
-        <v>71</v>
+        <v>10</v>
+      </c>
+      <c r="G88" t="n">
+        <v>54</v>
+      </c>
+      <c r="H88" t="n">
+        <v>61230.06</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>产品线D</t>
+          <t>产品线B</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2740,49 +3272,61 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>高风险</t>
+          <t>中风险</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>132107.16</v>
+        <v>1207850.29</v>
       </c>
       <c r="E89" t="n">
-        <v>8</v>
+        <v>1320549.47</v>
       </c>
       <c r="F89" t="n">
-        <v>63</v>
+        <v>19</v>
+      </c>
+      <c r="G89" t="n">
+        <v>97</v>
+      </c>
+      <c r="H89" t="n">
+        <v>93073.98</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>产品线B</t>
+          <t>产品线D</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>西部区</t>
+          <t>华南区</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>高风险</t>
+          <t>中风险</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>270254.62</v>
+        <v>1214148.73</v>
       </c>
       <c r="E90" t="n">
-        <v>36</v>
+        <v>3093706.16</v>
       </c>
       <c r="F90" t="n">
-        <v>81</v>
+        <v>21</v>
+      </c>
+      <c r="G90" t="n">
+        <v>29</v>
+      </c>
+      <c r="H90" t="n">
+        <v>294328.52</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>产品线C</t>
+          <t>产品线B</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -2792,54 +3336,66 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>高风险</t>
+          <t>低风险</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>409353.19</v>
+        <v>852376.76</v>
       </c>
       <c r="E91" t="n">
-        <v>33</v>
+        <v>3968297.58</v>
       </c>
       <c r="F91" t="n">
-        <v>59</v>
+        <v>25</v>
+      </c>
+      <c r="G91" t="n">
+        <v>54</v>
+      </c>
+      <c r="H91" t="n">
+        <v>296582.13</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>产品线D</t>
+          <t>产品线B</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>华南区</t>
+          <t>西部区</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>高风险</t>
+          <t>低风险</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>432132.51</v>
+        <v>125343.67</v>
       </c>
       <c r="E92" t="n">
+        <v>1369700.31</v>
+      </c>
+      <c r="F92" t="n">
         <v>29</v>
       </c>
-      <c r="F92" t="n">
-        <v>38</v>
+      <c r="G92" t="n">
+        <v>17</v>
+      </c>
+      <c r="H92" t="n">
+        <v>160155.57</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>产品线B</t>
+          <t>产品线D</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>华北区</t>
+          <t>华东区</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2848,13 +3404,19 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>247452.54</v>
+        <v>111496.79</v>
       </c>
       <c r="E93" t="n">
-        <v>16</v>
+        <v>129931.3</v>
       </c>
       <c r="F93" t="n">
-        <v>40</v>
+        <v>17</v>
+      </c>
+      <c r="G93" t="n">
+        <v>48</v>
+      </c>
+      <c r="H93" t="n">
+        <v>188861.52</v>
       </c>
     </row>
     <row r="94">
@@ -2870,17 +3432,23 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>高风险</t>
+          <t>中风险</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>150006.79</v>
+        <v>1944967.51</v>
       </c>
       <c r="E94" t="n">
-        <v>18</v>
+        <v>4553340.56</v>
       </c>
       <c r="F94" t="n">
-        <v>47</v>
+        <v>3</v>
+      </c>
+      <c r="G94" t="n">
+        <v>84</v>
+      </c>
+      <c r="H94" t="n">
+        <v>25184.12</v>
       </c>
     </row>
     <row r="95">
@@ -2891,33 +3459,39 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>华东区</t>
+          <t>华南区</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>低风险</t>
+          <t>高风险</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>83907.02</v>
+        <v>22264.6</v>
       </c>
       <c r="E95" t="n">
-        <v>25</v>
+        <v>78433.27</v>
       </c>
       <c r="F95" t="n">
-        <v>93</v>
+        <v>46</v>
+      </c>
+      <c r="G95" t="n">
+        <v>17</v>
+      </c>
+      <c r="H95" t="n">
+        <v>135885.17</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>产品线B</t>
+          <t>产品线C</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>华南区</t>
+          <t>华东区</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2926,13 +3500,19 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>213285.27</v>
+        <v>677686.08</v>
       </c>
       <c r="E96" t="n">
-        <v>22</v>
+        <v>858463.34</v>
       </c>
       <c r="F96" t="n">
-        <v>74</v>
+        <v>28</v>
+      </c>
+      <c r="G96" t="n">
+        <v>23</v>
+      </c>
+      <c r="H96" t="n">
+        <v>77038.24000000001</v>
       </c>
     </row>
     <row r="97">
@@ -2943,7 +3523,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>西部区</t>
+          <t>华南区</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2952,24 +3532,30 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>111348.85</v>
+        <v>61845.25</v>
       </c>
       <c r="E97" t="n">
-        <v>27</v>
+        <v>3668986.29</v>
       </c>
       <c r="F97" t="n">
-        <v>54</v>
+        <v>16</v>
+      </c>
+      <c r="G97" t="n">
+        <v>68</v>
+      </c>
+      <c r="H97" t="n">
+        <v>274284.56</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>产品线A</t>
+          <t>产品线B</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>西部区</t>
+          <t>华南区</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2978,76 +3564,94 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>12889.08</v>
+        <v>475742.3</v>
       </c>
       <c r="E98" t="n">
-        <v>23</v>
+        <v>90901.77</v>
       </c>
       <c r="F98" t="n">
-        <v>43</v>
+        <v>30</v>
+      </c>
+      <c r="G98" t="n">
+        <v>41</v>
+      </c>
+      <c r="H98" t="n">
+        <v>204895.21</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>产品线D</t>
+          <t>产品线B</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>西部区</t>
+          <t>华东区</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>高风险</t>
+          <t>中风险</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>376282.68</v>
+        <v>792591.02</v>
       </c>
       <c r="E99" t="n">
-        <v>35</v>
+        <v>1138938.7</v>
       </c>
       <c r="F99" t="n">
-        <v>82</v>
+        <v>28</v>
+      </c>
+      <c r="G99" t="n">
+        <v>93</v>
+      </c>
+      <c r="H99" t="n">
+        <v>78778.98</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>产品线B</t>
+          <t>产品线C</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>西部区</t>
+          <t>华南区</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>低风险</t>
+          <t>中风险</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>143738.3</v>
+        <v>927983.92</v>
       </c>
       <c r="E100" t="n">
-        <v>32</v>
+        <v>3501729.42</v>
       </c>
       <c r="F100" t="n">
-        <v>8</v>
+        <v>37</v>
+      </c>
+      <c r="G100" t="n">
+        <v>42</v>
+      </c>
+      <c r="H100" t="n">
+        <v>297844.15</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>产品线D</t>
+          <t>产品线C</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>华北区</t>
+          <t>华东区</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3056,45 +3660,57 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>342779.52</v>
+        <v>1129376.46</v>
       </c>
       <c r="E101" t="n">
-        <v>26</v>
+        <v>91955.53</v>
       </c>
       <c r="F101" t="n">
-        <v>97</v>
+        <v>48</v>
+      </c>
+      <c r="G101" t="n">
+        <v>68</v>
+      </c>
+      <c r="H101" t="n">
+        <v>250687.48</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>产品线B</t>
+          <t>产品线C</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>西部区</t>
+          <t>华南区</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>低风险</t>
+          <t>高风险</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>490553.77</v>
+        <v>331402.72</v>
       </c>
       <c r="E102" t="n">
-        <v>35</v>
+        <v>348356.47</v>
       </c>
       <c r="F102" t="n">
-        <v>8</v>
+        <v>44</v>
+      </c>
+      <c r="G102" t="n">
+        <v>97</v>
+      </c>
+      <c r="H102" t="n">
+        <v>231403.88</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>产品线D</t>
+          <t>产品线B</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -3104,43 +3720,55 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>低风险</t>
+          <t>高风险</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>324947.33</v>
+        <v>16137.71</v>
       </c>
       <c r="E103" t="n">
-        <v>9</v>
+        <v>1616775.86</v>
       </c>
       <c r="F103" t="n">
-        <v>64</v>
+        <v>24</v>
+      </c>
+      <c r="G103" t="n">
+        <v>98</v>
+      </c>
+      <c r="H103" t="n">
+        <v>43766.48</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>产品线B</t>
+          <t>产品线C</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>华东区</t>
+          <t>华北区</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>中风险</t>
+          <t>高风险</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>195760.89</v>
+        <v>1010768.08</v>
       </c>
       <c r="E104" t="n">
-        <v>14</v>
+        <v>414605.12</v>
       </c>
       <c r="F104" t="n">
-        <v>63</v>
+        <v>24</v>
+      </c>
+      <c r="G104" t="n">
+        <v>72</v>
+      </c>
+      <c r="H104" t="n">
+        <v>153029.45</v>
       </c>
     </row>
     <row r="105">
@@ -3151,7 +3779,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>华北区</t>
+          <t>华南区</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3160,13 +3788,19 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>146345.74</v>
+        <v>1960860.89</v>
       </c>
       <c r="E105" t="n">
-        <v>27</v>
+        <v>1246559.35</v>
       </c>
       <c r="F105" t="n">
-        <v>37</v>
+        <v>22</v>
+      </c>
+      <c r="G105" t="n">
+        <v>19</v>
+      </c>
+      <c r="H105" t="n">
+        <v>143157.76</v>
       </c>
     </row>
     <row r="106">
@@ -3177,7 +3811,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>西部区</t>
+          <t>华南区</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3186,50 +3820,62 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>377021.89</v>
+        <v>1960723.7</v>
       </c>
       <c r="E106" t="n">
-        <v>4</v>
+        <v>590302.88</v>
       </c>
       <c r="F106" t="n">
-        <v>49</v>
+        <v>26</v>
+      </c>
+      <c r="G106" t="n">
+        <v>6</v>
+      </c>
+      <c r="H106" t="n">
+        <v>83015.28</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>产品线B</t>
+          <t>产品线A</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>华东区</t>
+          <t>西部区</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>高风险</t>
+          <t>中风险</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>29726.49</v>
+        <v>550736.05</v>
       </c>
       <c r="E107" t="n">
-        <v>2</v>
+        <v>608346.1</v>
       </c>
       <c r="F107" t="n">
-        <v>36</v>
+        <v>15</v>
+      </c>
+      <c r="G107" t="n">
+        <v>65</v>
+      </c>
+      <c r="H107" t="n">
+        <v>12382.27</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>产品线B</t>
+          <t>产品线C</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>华东区</t>
+          <t>华南区</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3238,76 +3884,94 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>84667.35000000001</v>
+        <v>32134.79</v>
       </c>
       <c r="E108" t="n">
-        <v>9</v>
+        <v>4682856.73</v>
       </c>
       <c r="F108" t="n">
-        <v>65</v>
+        <v>20</v>
+      </c>
+      <c r="G108" t="n">
+        <v>88</v>
+      </c>
+      <c r="H108" t="n">
+        <v>125447.28</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>产品线A</t>
+          <t>产品线B</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>华南区</t>
+          <t>华东区</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>中风险</t>
+          <t>低风险</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>352737.84</v>
+        <v>797556.42</v>
       </c>
       <c r="E109" t="n">
-        <v>50</v>
+        <v>18747.28</v>
       </c>
       <c r="F109" t="n">
-        <v>52</v>
+        <v>35</v>
+      </c>
+      <c r="G109" t="n">
+        <v>22</v>
+      </c>
+      <c r="H109" t="n">
+        <v>119650.52</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>产品线B</t>
+          <t>产品线C</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>华东区</t>
+          <t>西部区</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>低风险</t>
+          <t>高风险</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>482713.18</v>
+        <v>182812.07</v>
       </c>
       <c r="E110" t="n">
-        <v>7</v>
+        <v>85032.38</v>
       </c>
       <c r="F110" t="n">
-        <v>79</v>
+        <v>40</v>
+      </c>
+      <c r="G110" t="n">
+        <v>57</v>
+      </c>
+      <c r="H110" t="n">
+        <v>282020.65</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>产品线A</t>
+          <t>产品线C</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>华北区</t>
+          <t>华东区</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -3316,39 +3980,51 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>341900.17</v>
+        <v>330361.81</v>
       </c>
       <c r="E111" t="n">
-        <v>25</v>
+        <v>4826943.09</v>
       </c>
       <c r="F111" t="n">
-        <v>55</v>
+        <v>24</v>
+      </c>
+      <c r="G111" t="n">
+        <v>17</v>
+      </c>
+      <c r="H111" t="n">
+        <v>294373.68</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>产品线B</t>
+          <t>产品线C</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>华东区</t>
+          <t>华北区</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>高风险</t>
+          <t>低风险</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>348401.06</v>
+        <v>1131057.73</v>
       </c>
       <c r="E112" t="n">
-        <v>41</v>
+        <v>95410.97</v>
       </c>
       <c r="F112" t="n">
-        <v>36</v>
+        <v>30</v>
+      </c>
+      <c r="G112" t="n">
+        <v>16</v>
+      </c>
+      <c r="H112" t="n">
+        <v>200516.78</v>
       </c>
     </row>
     <row r="113">
@@ -3359,54 +4035,66 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>华北区</t>
+          <t>华东区</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>高风险</t>
+          <t>中风险</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>304201.69</v>
+        <v>198323.14</v>
       </c>
       <c r="E113" t="n">
-        <v>8</v>
+        <v>127444.06</v>
       </c>
       <c r="F113" t="n">
-        <v>77</v>
+        <v>49</v>
+      </c>
+      <c r="G113" t="n">
+        <v>75</v>
+      </c>
+      <c r="H113" t="n">
+        <v>66111.42</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>产品线A</t>
+          <t>产品线B</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>华北区</t>
+          <t>华南区</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>高风险</t>
+          <t>中风险</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>219905.23</v>
+        <v>168296.56</v>
       </c>
       <c r="E114" t="n">
-        <v>24</v>
+        <v>34954.74</v>
       </c>
       <c r="F114" t="n">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G114" t="n">
+        <v>21</v>
+      </c>
+      <c r="H114" t="n">
+        <v>164363.56</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>产品线C</t>
+          <t>产品线B</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -3416,49 +4104,61 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>中风险</t>
+          <t>高风险</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>412942.15</v>
+        <v>7458.36</v>
       </c>
       <c r="E115" t="n">
-        <v>7</v>
+        <v>1289984.66</v>
       </c>
       <c r="F115" t="n">
-        <v>60</v>
+        <v>16</v>
+      </c>
+      <c r="G115" t="n">
+        <v>80</v>
+      </c>
+      <c r="H115" t="n">
+        <v>100512.58</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>产品线C</t>
+          <t>产品线B</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>西部区</t>
+          <t>华北区</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>高风险</t>
+          <t>低风险</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>84965.66</v>
+        <v>161257.71</v>
       </c>
       <c r="E116" t="n">
-        <v>12</v>
+        <v>77109.87</v>
       </c>
       <c r="F116" t="n">
-        <v>98</v>
+        <v>31</v>
+      </c>
+      <c r="G116" t="n">
+        <v>62</v>
+      </c>
+      <c r="H116" t="n">
+        <v>234515.03</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>产品线C</t>
+          <t>产品线A</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -3468,49 +4168,61 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>中风险</t>
+          <t>高风险</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>223431.5</v>
+        <v>191812.35</v>
       </c>
       <c r="E117" t="n">
-        <v>47</v>
+        <v>75451.87</v>
       </c>
       <c r="F117" t="n">
-        <v>80</v>
+        <v>43</v>
+      </c>
+      <c r="G117" t="n">
+        <v>71</v>
+      </c>
+      <c r="H117" t="n">
+        <v>93980.95</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>产品线C</t>
+          <t>产品线A</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>华北区</t>
+          <t>华东区</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>低风险</t>
+          <t>中风险</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>417058.2</v>
+        <v>1311528.34</v>
       </c>
       <c r="E118" t="n">
-        <v>6</v>
+        <v>54124.2</v>
       </c>
       <c r="F118" t="n">
-        <v>40</v>
+        <v>29</v>
+      </c>
+      <c r="G118" t="n">
+        <v>14</v>
+      </c>
+      <c r="H118" t="n">
+        <v>270283.7</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>产品线D</t>
+          <t>产品线C</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -3520,23 +4232,29 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>中风险</t>
+          <t>低风险</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>289226.33</v>
+        <v>91252.39999999999</v>
       </c>
       <c r="E119" t="n">
-        <v>43</v>
+        <v>880904.4</v>
       </c>
       <c r="F119" t="n">
-        <v>53</v>
+        <v>39</v>
+      </c>
+      <c r="G119" t="n">
+        <v>72</v>
+      </c>
+      <c r="H119" t="n">
+        <v>91994.84</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>产品线C</t>
+          <t>产品线D</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -3546,28 +4264,34 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>中风险</t>
+          <t>高风险</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>426966.89</v>
+        <v>42786.84</v>
       </c>
       <c r="E120" t="n">
-        <v>12</v>
+        <v>272027.98</v>
       </c>
       <c r="F120" t="n">
-        <v>67</v>
+        <v>15</v>
+      </c>
+      <c r="G120" t="n">
+        <v>57</v>
+      </c>
+      <c r="H120" t="n">
+        <v>104984.83</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>产品线B</t>
+          <t>产品线D</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>华北区</t>
+          <t>西部区</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -3576,19 +4300,25 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>176766.03</v>
+        <v>16314.87</v>
       </c>
       <c r="E121" t="n">
-        <v>39</v>
+        <v>1165107.86</v>
       </c>
       <c r="F121" t="n">
-        <v>94</v>
+        <v>24</v>
+      </c>
+      <c r="G121" t="n">
+        <v>24</v>
+      </c>
+      <c r="H121" t="n">
+        <v>207612.21</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>产品线C</t>
+          <t>产品线D</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -3598,54 +4328,66 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>高风险</t>
+          <t>低风险</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>474550.66</v>
+        <v>5568.27</v>
       </c>
       <c r="E122" t="n">
-        <v>6</v>
+        <v>77013.00999999999</v>
       </c>
       <c r="F122" t="n">
-        <v>35</v>
+        <v>24</v>
+      </c>
+      <c r="G122" t="n">
+        <v>21</v>
+      </c>
+      <c r="H122" t="n">
+        <v>169129.37</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>产品线D</t>
+          <t>产品线C</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>西部区</t>
+          <t>华东区</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>高风险</t>
+          <t>中风险</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>381500.68</v>
+        <v>724164.42</v>
       </c>
       <c r="E123" t="n">
-        <v>45</v>
+        <v>4538322.52</v>
       </c>
       <c r="F123" t="n">
-        <v>65</v>
+        <v>47</v>
+      </c>
+      <c r="G123" t="n">
+        <v>11</v>
+      </c>
+      <c r="H123" t="n">
+        <v>290677.59</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>产品线D</t>
+          <t>产品线C</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>西部区</t>
+          <t>华北区</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -3654,50 +4396,62 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>55596.14</v>
+        <v>73209.53</v>
       </c>
       <c r="E124" t="n">
-        <v>15</v>
+        <v>2284857.04</v>
       </c>
       <c r="F124" t="n">
-        <v>56</v>
+        <v>7</v>
+      </c>
+      <c r="G124" t="n">
+        <v>49</v>
+      </c>
+      <c r="H124" t="n">
+        <v>254385.16</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>产品线B</t>
+          <t>产品线C</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>华北区</t>
+          <t>华东区</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>高风险</t>
+          <t>中风险</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>294962.24</v>
+        <v>171083.21</v>
       </c>
       <c r="E125" t="n">
-        <v>31</v>
+        <v>64809.54</v>
       </c>
       <c r="F125" t="n">
-        <v>75</v>
+        <v>43</v>
+      </c>
+      <c r="G125" t="n">
+        <v>93</v>
+      </c>
+      <c r="H125" t="n">
+        <v>83897.08</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>产品线C</t>
+          <t>产品线B</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>西部区</t>
+          <t>华北区</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -3706,45 +4460,57 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>279690.35</v>
+        <v>752922.51</v>
       </c>
       <c r="E126" t="n">
-        <v>23</v>
+        <v>506105.79</v>
       </c>
       <c r="F126" t="n">
-        <v>94</v>
+        <v>10</v>
+      </c>
+      <c r="G126" t="n">
+        <v>77</v>
+      </c>
+      <c r="H126" t="n">
+        <v>198916.67</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>产品线D</t>
+          <t>产品线A</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>华北区</t>
+          <t>华南区</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>中风险</t>
+          <t>高风险</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>133187.8</v>
+        <v>5496.13</v>
       </c>
       <c r="E127" t="n">
-        <v>8</v>
+        <v>250477.76</v>
       </c>
       <c r="F127" t="n">
-        <v>97</v>
+        <v>30</v>
+      </c>
+      <c r="G127" t="n">
+        <v>48</v>
+      </c>
+      <c r="H127" t="n">
+        <v>51435.74</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>产品线B</t>
+          <t>产品线C</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -3754,49 +4520,61 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>低风险</t>
+          <t>高风险</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>374011.72</v>
+        <v>44283.77</v>
       </c>
       <c r="E128" t="n">
-        <v>49</v>
+        <v>162963.96</v>
       </c>
       <c r="F128" t="n">
-        <v>93</v>
+        <v>40</v>
+      </c>
+      <c r="G128" t="n">
+        <v>11</v>
+      </c>
+      <c r="H128" t="n">
+        <v>203820.77</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>产品线B</t>
+          <t>产品线C</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>华南区</t>
+          <t>西部区</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>低风险</t>
+          <t>高风险</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>371916.28</v>
+        <v>1382794.05</v>
       </c>
       <c r="E129" t="n">
-        <v>18</v>
+        <v>2949643.08</v>
       </c>
       <c r="F129" t="n">
-        <v>97</v>
+        <v>14</v>
+      </c>
+      <c r="G129" t="n">
+        <v>70</v>
+      </c>
+      <c r="H129" t="n">
+        <v>38576.16</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>产品线C</t>
+          <t>产品线D</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -3806,75 +4584,93 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>低风险</t>
+          <t>中风险</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>155160.77</v>
+        <v>1432320.93</v>
       </c>
       <c r="E130" t="n">
-        <v>24</v>
+        <v>545417.36</v>
       </c>
       <c r="F130" t="n">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="G130" t="n">
+        <v>81</v>
+      </c>
+      <c r="H130" t="n">
+        <v>21160.68</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>产品线C</t>
+          <t>产品线B</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>华东区</t>
+          <t>华北区</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>高风险</t>
+          <t>低风险</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>271726.19</v>
+        <v>164624.13</v>
       </c>
       <c r="E131" t="n">
-        <v>18</v>
+        <v>828122.36</v>
       </c>
       <c r="F131" t="n">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="G131" t="n">
+        <v>68</v>
+      </c>
+      <c r="H131" t="n">
+        <v>225369.17</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>产品线A</t>
+          <t>产品线B</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>华北区</t>
+          <t>华南区</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>高风险</t>
+          <t>中风险</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>472603.91</v>
+        <v>125039.35</v>
       </c>
       <c r="E132" t="n">
-        <v>41</v>
+        <v>572075.5</v>
       </c>
       <c r="F132" t="n">
-        <v>67</v>
+        <v>48</v>
+      </c>
+      <c r="G132" t="n">
+        <v>10</v>
+      </c>
+      <c r="H132" t="n">
+        <v>133684.78</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>产品线A</t>
+          <t>产品线D</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -3884,106 +4680,130 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>高风险</t>
+          <t>中风险</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>149326.27</v>
+        <v>1488079.62</v>
       </c>
       <c r="E133" t="n">
-        <v>31</v>
+        <v>2513303.22</v>
       </c>
       <c r="F133" t="n">
-        <v>61</v>
+        <v>26</v>
+      </c>
+      <c r="G133" t="n">
+        <v>7</v>
+      </c>
+      <c r="H133" t="n">
+        <v>290028.91</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>产品线C</t>
+          <t>产品线B</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>华南区</t>
+          <t>西部区</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>低风险</t>
+          <t>高风险</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>133714.41</v>
+        <v>252877.93</v>
       </c>
       <c r="E134" t="n">
-        <v>31</v>
+        <v>31898.48</v>
       </c>
       <c r="F134" t="n">
-        <v>19</v>
+        <v>38</v>
+      </c>
+      <c r="G134" t="n">
+        <v>56</v>
+      </c>
+      <c r="H134" t="n">
+        <v>159568.95</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>产品线A</t>
+          <t>产品线D</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>西部区</t>
+          <t>华北区</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>中风险</t>
+          <t>高风险</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>46300.26</v>
+        <v>332943.24</v>
       </c>
       <c r="E135" t="n">
+        <v>130551.75</v>
+      </c>
+      <c r="F135" t="n">
         <v>41</v>
       </c>
-      <c r="F135" t="n">
-        <v>92</v>
+      <c r="G135" t="n">
+        <v>19</v>
+      </c>
+      <c r="H135" t="n">
+        <v>161528.42</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>产品线A</t>
+          <t>产品线B</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>华南区</t>
+          <t>华北区</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>低风险</t>
+          <t>中风险</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>407459.62</v>
+        <v>85440.33</v>
       </c>
       <c r="E136" t="n">
-        <v>20</v>
+        <v>202387.29</v>
       </c>
       <c r="F136" t="n">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="G136" t="n">
+        <v>82</v>
+      </c>
+      <c r="H136" t="n">
+        <v>50096.59</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>产品线B</t>
+          <t>产品线A</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>华东区</t>
+          <t>华南区</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -3992,45 +4812,57 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>384577.29</v>
+        <v>1356743.68</v>
       </c>
       <c r="E137" t="n">
-        <v>39</v>
+        <v>3883967.17</v>
       </c>
       <c r="F137" t="n">
-        <v>81</v>
+        <v>37</v>
+      </c>
+      <c r="G137" t="n">
+        <v>87</v>
+      </c>
+      <c r="H137" t="n">
+        <v>192413</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>产品线B</t>
+          <t>产品线C</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>西部区</t>
+          <t>华北区</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>中风险</t>
+          <t>低风险</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>455167.15</v>
+        <v>881943.51</v>
       </c>
       <c r="E138" t="n">
-        <v>20</v>
+        <v>3709847.92</v>
       </c>
       <c r="F138" t="n">
+        <v>18</v>
+      </c>
+      <c r="G138" t="n">
         <v>80</v>
+      </c>
+      <c r="H138" t="n">
+        <v>21570.78</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>产品线D</t>
+          <t>产品线A</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -4040,17 +4872,23 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>高风险</t>
+          <t>中风险</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>314303.39</v>
+        <v>845128.6899999999</v>
       </c>
       <c r="E139" t="n">
-        <v>40</v>
+        <v>1331696.63</v>
       </c>
       <c r="F139" t="n">
-        <v>99</v>
+        <v>5</v>
+      </c>
+      <c r="G139" t="n">
+        <v>87</v>
+      </c>
+      <c r="H139" t="n">
+        <v>259953.76</v>
       </c>
     </row>
     <row r="140">
@@ -4061,33 +4899,39 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>华南区</t>
+          <t>西部区</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>高风险</t>
+          <t>中风险</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>113402.35</v>
+        <v>23036.95</v>
       </c>
       <c r="E140" t="n">
-        <v>43</v>
+        <v>228610.71</v>
       </c>
       <c r="F140" t="n">
-        <v>15</v>
+        <v>31</v>
+      </c>
+      <c r="G140" t="n">
+        <v>69</v>
+      </c>
+      <c r="H140" t="n">
+        <v>49504.02</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>产品线B</t>
+          <t>产品线A</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>华南区</t>
+          <t>西部区</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -4096,13 +4940,19 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>280476.2</v>
+        <v>789431.35</v>
       </c>
       <c r="E141" t="n">
-        <v>11</v>
+        <v>55409.41</v>
       </c>
       <c r="F141" t="n">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="G141" t="n">
+        <v>10</v>
+      </c>
+      <c r="H141" t="n">
+        <v>78084.39999999999</v>
       </c>
     </row>
     <row r="142">
@@ -4122,19 +4972,25 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>300967.49</v>
+        <v>104584.69</v>
       </c>
       <c r="E142" t="n">
-        <v>19</v>
+        <v>887416.5600000001</v>
       </c>
       <c r="F142" t="n">
-        <v>9</v>
+        <v>50</v>
+      </c>
+      <c r="G142" t="n">
+        <v>48</v>
+      </c>
+      <c r="H142" t="n">
+        <v>205274.83</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>产品线B</t>
+          <t>产品线A</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -4144,17 +5000,23 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>高风险</t>
+          <t>低风险</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>148532</v>
+        <v>256703.57</v>
       </c>
       <c r="E143" t="n">
-        <v>30</v>
+        <v>2494514.41</v>
       </c>
       <c r="F143" t="n">
-        <v>14</v>
+        <v>47</v>
+      </c>
+      <c r="G143" t="n">
+        <v>89</v>
+      </c>
+      <c r="H143" t="n">
+        <v>289500.96</v>
       </c>
     </row>
     <row r="144">
@@ -4170,17 +5032,23 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>高风险</t>
+          <t>低风险</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>298996.9</v>
+        <v>187511.97</v>
       </c>
       <c r="E144" t="n">
-        <v>13</v>
+        <v>1467696.51</v>
       </c>
       <c r="F144" t="n">
-        <v>59</v>
+        <v>45</v>
+      </c>
+      <c r="G144" t="n">
+        <v>89</v>
+      </c>
+      <c r="H144" t="n">
+        <v>120627.61</v>
       </c>
     </row>
     <row r="145">
@@ -4191,7 +5059,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>华南区</t>
+          <t>华北区</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -4200,13 +5068,19 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>83004.81</v>
+        <v>1572191.92</v>
       </c>
       <c r="E145" t="n">
-        <v>18</v>
+        <v>1313184.78</v>
       </c>
       <c r="F145" t="n">
-        <v>23</v>
+        <v>43</v>
+      </c>
+      <c r="G145" t="n">
+        <v>94</v>
+      </c>
+      <c r="H145" t="n">
+        <v>249542.9</v>
       </c>
     </row>
     <row r="146">
@@ -4217,33 +5091,39 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>华东区</t>
+          <t>西部区</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>低风险</t>
+          <t>高风险</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>398388</v>
+        <v>210938.32</v>
       </c>
       <c r="E146" t="n">
-        <v>39</v>
+        <v>680262.92</v>
       </c>
       <c r="F146" t="n">
-        <v>100</v>
+        <v>14</v>
+      </c>
+      <c r="G146" t="n">
+        <v>48</v>
+      </c>
+      <c r="H146" t="n">
+        <v>284562.14</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>产品线C</t>
+          <t>产品线D</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>西部区</t>
+          <t>华南区</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -4252,19 +5132,25 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>239662.01</v>
+        <v>73241.78</v>
       </c>
       <c r="E147" t="n">
-        <v>20</v>
+        <v>1344428.39</v>
       </c>
       <c r="F147" t="n">
-        <v>94</v>
+        <v>7</v>
+      </c>
+      <c r="G147" t="n">
+        <v>69</v>
+      </c>
+      <c r="H147" t="n">
+        <v>232408.04</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>产品线D</t>
+          <t>产品线A</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -4278,19 +5164,25 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>274590.97</v>
+        <v>139586.97</v>
       </c>
       <c r="E148" t="n">
-        <v>29</v>
+        <v>164898.88</v>
       </c>
       <c r="F148" t="n">
-        <v>15</v>
+        <v>45</v>
+      </c>
+      <c r="G148" t="n">
+        <v>84</v>
+      </c>
+      <c r="H148" t="n">
+        <v>243667.9</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>产品线A</t>
+          <t>产品线B</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -4300,23 +5192,29 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>高风险</t>
+          <t>低风险</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>167937.58</v>
+        <v>1237159.3</v>
       </c>
       <c r="E149" t="n">
-        <v>17</v>
+        <v>487835.44</v>
       </c>
       <c r="F149" t="n">
-        <v>8</v>
+        <v>40</v>
+      </c>
+      <c r="G149" t="n">
+        <v>41</v>
+      </c>
+      <c r="H149" t="n">
+        <v>226955.39</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>产品线A</t>
+          <t>产品线D</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -4330,39 +5228,1651 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>419619.72</v>
+        <v>96420.17999999999</v>
       </c>
       <c r="E150" t="n">
-        <v>37</v>
+        <v>4663910.18</v>
       </c>
       <c r="F150" t="n">
-        <v>80</v>
+        <v>13</v>
+      </c>
+      <c r="G150" t="n">
+        <v>52</v>
+      </c>
+      <c r="H150" t="n">
+        <v>205100.51</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
+          <t>产品线D</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>西部区</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>中风险</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>1403488.03</v>
+      </c>
+      <c r="E151" t="n">
+        <v>4881938.54</v>
+      </c>
+      <c r="F151" t="n">
+        <v>13</v>
+      </c>
+      <c r="G151" t="n">
+        <v>82</v>
+      </c>
+      <c r="H151" t="n">
+        <v>45827.57</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>产品线C</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>华东区</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>高风险</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>1848940.33</v>
+      </c>
+      <c r="E152" t="n">
+        <v>74026.09</v>
+      </c>
+      <c r="F152" t="n">
+        <v>34</v>
+      </c>
+      <c r="G152" t="n">
+        <v>20</v>
+      </c>
+      <c r="H152" t="n">
+        <v>89093.59</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>产品线B</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>华北区</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>中风险</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>174657.01</v>
+      </c>
+      <c r="E153" t="n">
+        <v>95177.19</v>
+      </c>
+      <c r="F153" t="n">
+        <v>15</v>
+      </c>
+      <c r="G153" t="n">
+        <v>62</v>
+      </c>
+      <c r="H153" t="n">
+        <v>265965.78</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
           <t>产品线A</t>
         </is>
       </c>
-      <c r="B151" t="inlineStr">
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>西部区</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>低风险</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>1402408.54</v>
+      </c>
+      <c r="E154" t="n">
+        <v>254466.45</v>
+      </c>
+      <c r="F154" t="n">
+        <v>6</v>
+      </c>
+      <c r="G154" t="n">
+        <v>52</v>
+      </c>
+      <c r="H154" t="n">
+        <v>71238.92999999999</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>产品线C</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>华东区</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>高风险</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>674828.38</v>
+      </c>
+      <c r="E155" t="n">
+        <v>115321.28</v>
+      </c>
+      <c r="F155" t="n">
+        <v>31</v>
+      </c>
+      <c r="G155" t="n">
+        <v>94</v>
+      </c>
+      <c r="H155" t="n">
+        <v>250177.59</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>产品线D</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>西部区</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>高风险</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>45387.02</v>
+      </c>
+      <c r="E156" t="n">
+        <v>33033.15</v>
+      </c>
+      <c r="F156" t="n">
+        <v>10</v>
+      </c>
+      <c r="G156" t="n">
+        <v>75</v>
+      </c>
+      <c r="H156" t="n">
+        <v>282366.66</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>产品线D</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>华东区</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>中风险</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>95172.67999999999</v>
+      </c>
+      <c r="E157" t="n">
+        <v>31459.56</v>
+      </c>
+      <c r="F157" t="n">
+        <v>41</v>
+      </c>
+      <c r="G157" t="n">
+        <v>84</v>
+      </c>
+      <c r="H157" t="n">
+        <v>139848.52</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>产品线A</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>西部区</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>高风险</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>31965.79</v>
+      </c>
+      <c r="E158" t="n">
+        <v>387417.73</v>
+      </c>
+      <c r="F158" t="n">
+        <v>19</v>
+      </c>
+      <c r="G158" t="n">
+        <v>59</v>
+      </c>
+      <c r="H158" t="n">
+        <v>5461.48</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>产品线C</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>华南区</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>高风险</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>1024776.69</v>
+      </c>
+      <c r="E159" t="n">
+        <v>57113.61</v>
+      </c>
+      <c r="F159" t="n">
+        <v>24</v>
+      </c>
+      <c r="G159" t="n">
+        <v>13</v>
+      </c>
+      <c r="H159" t="n">
+        <v>286254.09</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>产品线A</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>西部区</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>中风险</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>32147.87</v>
+      </c>
+      <c r="E160" t="n">
+        <v>753650.26</v>
+      </c>
+      <c r="F160" t="n">
+        <v>2</v>
+      </c>
+      <c r="G160" t="n">
+        <v>50</v>
+      </c>
+      <c r="H160" t="n">
+        <v>237613.4</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>产品线C</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>华南区</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>高风险</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>38803.57</v>
+      </c>
+      <c r="E161" t="n">
+        <v>633409.59</v>
+      </c>
+      <c r="F161" t="n">
+        <v>23</v>
+      </c>
+      <c r="G161" t="n">
+        <v>74</v>
+      </c>
+      <c r="H161" t="n">
+        <v>104871.44</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>产品线B</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>西部区</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>高风险</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>1558083.02</v>
+      </c>
+      <c r="E162" t="n">
+        <v>125240.21</v>
+      </c>
+      <c r="F162" t="n">
+        <v>50</v>
+      </c>
+      <c r="G162" t="n">
+        <v>63</v>
+      </c>
+      <c r="H162" t="n">
+        <v>15910.22</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>产品线B</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>华东区</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>低风险</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>16464.2</v>
+      </c>
+      <c r="E163" t="n">
+        <v>1015383.59</v>
+      </c>
+      <c r="F163" t="n">
+        <v>35</v>
+      </c>
+      <c r="G163" t="n">
+        <v>65</v>
+      </c>
+      <c r="H163" t="n">
+        <v>79727.56</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>产品线B</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
         <is>
           <t>华北区</t>
         </is>
       </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>高风险</t>
-        </is>
-      </c>
-      <c r="D151" t="n">
-        <v>29713.52</v>
-      </c>
-      <c r="E151" t="n">
-        <v>49</v>
-      </c>
-      <c r="F151" t="n">
-        <v>27</v>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>中风险</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>43424.12</v>
+      </c>
+      <c r="E164" t="n">
+        <v>773216.61</v>
+      </c>
+      <c r="F164" t="n">
+        <v>24</v>
+      </c>
+      <c r="G164" t="n">
+        <v>60</v>
+      </c>
+      <c r="H164" t="n">
+        <v>267398.52</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>产品线D</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>西部区</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>中风险</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>124430.48</v>
+      </c>
+      <c r="E165" t="n">
+        <v>2785714.24</v>
+      </c>
+      <c r="F165" t="n">
+        <v>34</v>
+      </c>
+      <c r="G165" t="n">
+        <v>39</v>
+      </c>
+      <c r="H165" t="n">
+        <v>241338.69</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>产品线D</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>华东区</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>中风险</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>131821.16</v>
+      </c>
+      <c r="E166" t="n">
+        <v>602597.91</v>
+      </c>
+      <c r="F166" t="n">
+        <v>21</v>
+      </c>
+      <c r="G166" t="n">
+        <v>89</v>
+      </c>
+      <c r="H166" t="n">
+        <v>92213.78999999999</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>产品线D</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>西部区</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>低风险</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>1221856.38</v>
+      </c>
+      <c r="E167" t="n">
+        <v>75413.3</v>
+      </c>
+      <c r="F167" t="n">
+        <v>23</v>
+      </c>
+      <c r="G167" t="n">
+        <v>83</v>
+      </c>
+      <c r="H167" t="n">
+        <v>299454.43</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>产品线C</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>华东区</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>低风险</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>1235973.36</v>
+      </c>
+      <c r="E168" t="n">
+        <v>481115.76</v>
+      </c>
+      <c r="F168" t="n">
+        <v>10</v>
+      </c>
+      <c r="G168" t="n">
+        <v>82</v>
+      </c>
+      <c r="H168" t="n">
+        <v>205036.22</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>产品线D</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>华东区</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>低风险</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>12563.77</v>
+      </c>
+      <c r="E169" t="n">
+        <v>862150.58</v>
+      </c>
+      <c r="F169" t="n">
+        <v>37</v>
+      </c>
+      <c r="G169" t="n">
+        <v>9</v>
+      </c>
+      <c r="H169" t="n">
+        <v>183502.97</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>产品线D</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>华北区</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>中风险</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>1715701.37</v>
+      </c>
+      <c r="E170" t="n">
+        <v>311783.95</v>
+      </c>
+      <c r="F170" t="n">
+        <v>26</v>
+      </c>
+      <c r="G170" t="n">
+        <v>45</v>
+      </c>
+      <c r="H170" t="n">
+        <v>196620.42</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>产品线B</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>华东区</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>低风险</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>124856.59</v>
+      </c>
+      <c r="E171" t="n">
+        <v>4697398.77</v>
+      </c>
+      <c r="F171" t="n">
+        <v>8</v>
+      </c>
+      <c r="G171" t="n">
+        <v>38</v>
+      </c>
+      <c r="H171" t="n">
+        <v>233614.52</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>产品线D</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>华南区</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>高风险</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>616388.38</v>
+      </c>
+      <c r="E172" t="n">
+        <v>2200624.19</v>
+      </c>
+      <c r="F172" t="n">
+        <v>9</v>
+      </c>
+      <c r="G172" t="n">
+        <v>14</v>
+      </c>
+      <c r="H172" t="n">
+        <v>138352.59</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>产品线D</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>华东区</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>高风险</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>600703.87</v>
+      </c>
+      <c r="E173" t="n">
+        <v>59499.74</v>
+      </c>
+      <c r="F173" t="n">
+        <v>19</v>
+      </c>
+      <c r="G173" t="n">
+        <v>43</v>
+      </c>
+      <c r="H173" t="n">
+        <v>256151.8</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>产品线B</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>华北区</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>高风险</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>68204.37</v>
+      </c>
+      <c r="E174" t="n">
+        <v>416826.27</v>
+      </c>
+      <c r="F174" t="n">
+        <v>16</v>
+      </c>
+      <c r="G174" t="n">
+        <v>68</v>
+      </c>
+      <c r="H174" t="n">
+        <v>12753.79</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>产品线C</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>西部区</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>高风险</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>141792.25</v>
+      </c>
+      <c r="E175" t="n">
+        <v>15917.33</v>
+      </c>
+      <c r="F175" t="n">
+        <v>26</v>
+      </c>
+      <c r="G175" t="n">
+        <v>96</v>
+      </c>
+      <c r="H175" t="n">
+        <v>217066.55</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>产品线D</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>西部区</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>高风险</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>7141.01</v>
+      </c>
+      <c r="E176" t="n">
+        <v>1142338.59</v>
+      </c>
+      <c r="F176" t="n">
+        <v>29</v>
+      </c>
+      <c r="G176" t="n">
+        <v>64</v>
+      </c>
+      <c r="H176" t="n">
+        <v>205632.15</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>产品线C</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>华南区</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>高风险</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>165167.25</v>
+      </c>
+      <c r="E177" t="n">
+        <v>273047.31</v>
+      </c>
+      <c r="F177" t="n">
+        <v>4</v>
+      </c>
+      <c r="G177" t="n">
+        <v>20</v>
+      </c>
+      <c r="H177" t="n">
+        <v>157840.13</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>产品线C</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>华南区</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>低风险</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>760842.7</v>
+      </c>
+      <c r="E178" t="n">
+        <v>238409.23</v>
+      </c>
+      <c r="F178" t="n">
+        <v>34</v>
+      </c>
+      <c r="G178" t="n">
+        <v>41</v>
+      </c>
+      <c r="H178" t="n">
+        <v>254550.44</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>产品线C</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>华南区</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>高风险</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>275102.18</v>
+      </c>
+      <c r="E179" t="n">
+        <v>1114428.28</v>
+      </c>
+      <c r="F179" t="n">
+        <v>6</v>
+      </c>
+      <c r="G179" t="n">
+        <v>69</v>
+      </c>
+      <c r="H179" t="n">
+        <v>194091.29</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>产品线B</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>华南区</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>高风险</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>705518</v>
+      </c>
+      <c r="E180" t="n">
+        <v>84271.25999999999</v>
+      </c>
+      <c r="F180" t="n">
+        <v>2</v>
+      </c>
+      <c r="G180" t="n">
+        <v>15</v>
+      </c>
+      <c r="H180" t="n">
+        <v>18411.23</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>产品线C</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>华南区</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>高风险</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>1541730.11</v>
+      </c>
+      <c r="E181" t="n">
+        <v>54823.43</v>
+      </c>
+      <c r="F181" t="n">
+        <v>41</v>
+      </c>
+      <c r="G181" t="n">
+        <v>74</v>
+      </c>
+      <c r="H181" t="n">
+        <v>90453.14</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>产品线C</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>西部区</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>低风险</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>1156920.65</v>
+      </c>
+      <c r="E182" t="n">
+        <v>71975.22</v>
+      </c>
+      <c r="F182" t="n">
+        <v>11</v>
+      </c>
+      <c r="G182" t="n">
+        <v>61</v>
+      </c>
+      <c r="H182" t="n">
+        <v>127608.42</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>产品线D</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>华南区</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>中风险</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>96887.37</v>
+      </c>
+      <c r="E183" t="n">
+        <v>1234199.75</v>
+      </c>
+      <c r="F183" t="n">
+        <v>23</v>
+      </c>
+      <c r="G183" t="n">
+        <v>56</v>
+      </c>
+      <c r="H183" t="n">
+        <v>43576.01</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>产品线C</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>华东区</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>中风险</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>119970.89</v>
+      </c>
+      <c r="E184" t="n">
+        <v>949596.01</v>
+      </c>
+      <c r="F184" t="n">
+        <v>10</v>
+      </c>
+      <c r="G184" t="n">
+        <v>17</v>
+      </c>
+      <c r="H184" t="n">
+        <v>19928.56</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>产品线D</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>西部区</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>低风险</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>172021.68</v>
+      </c>
+      <c r="E185" t="n">
+        <v>689834.1</v>
+      </c>
+      <c r="F185" t="n">
+        <v>11</v>
+      </c>
+      <c r="G185" t="n">
+        <v>68</v>
+      </c>
+      <c r="H185" t="n">
+        <v>298810.98</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>产品线D</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>西部区</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>中风险</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>827811.5600000001</v>
+      </c>
+      <c r="E186" t="n">
+        <v>3269055.62</v>
+      </c>
+      <c r="F186" t="n">
+        <v>16</v>
+      </c>
+      <c r="G186" t="n">
+        <v>32</v>
+      </c>
+      <c r="H186" t="n">
+        <v>177086.51</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>产品线A</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>华东区</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>中风险</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>1517022.53</v>
+      </c>
+      <c r="E187" t="n">
+        <v>2500119.34</v>
+      </c>
+      <c r="F187" t="n">
+        <v>1</v>
+      </c>
+      <c r="G187" t="n">
+        <v>18</v>
+      </c>
+      <c r="H187" t="n">
+        <v>132123.69</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>产品线C</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>华北区</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>中风险</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>227145.44</v>
+      </c>
+      <c r="E188" t="n">
+        <v>61325.35</v>
+      </c>
+      <c r="F188" t="n">
+        <v>13</v>
+      </c>
+      <c r="G188" t="n">
+        <v>51</v>
+      </c>
+      <c r="H188" t="n">
+        <v>168200.76</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>产品线A</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>西部区</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>高风险</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>1717284.94</v>
+      </c>
+      <c r="E189" t="n">
+        <v>1325311.32</v>
+      </c>
+      <c r="F189" t="n">
+        <v>40</v>
+      </c>
+      <c r="G189" t="n">
+        <v>92</v>
+      </c>
+      <c r="H189" t="n">
+        <v>185257.73</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>产品线B</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>华东区</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>中风险</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>676938.34</v>
+      </c>
+      <c r="E190" t="n">
+        <v>1057831.84</v>
+      </c>
+      <c r="F190" t="n">
+        <v>24</v>
+      </c>
+      <c r="G190" t="n">
+        <v>23</v>
+      </c>
+      <c r="H190" t="n">
+        <v>63722.08</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>产品线D</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>华东区</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>低风险</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>7714.78</v>
+      </c>
+      <c r="E191" t="n">
+        <v>1303965.86</v>
+      </c>
+      <c r="F191" t="n">
+        <v>34</v>
+      </c>
+      <c r="G191" t="n">
+        <v>63</v>
+      </c>
+      <c r="H191" t="n">
+        <v>48937.5</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>产品线B</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>华北区</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>高风险</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>297501.23</v>
+      </c>
+      <c r="E192" t="n">
+        <v>1093724.66</v>
+      </c>
+      <c r="F192" t="n">
+        <v>33</v>
+      </c>
+      <c r="G192" t="n">
+        <v>70</v>
+      </c>
+      <c r="H192" t="n">
+        <v>162040.25</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>产品线C</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>西部区</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>低风险</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>398743.76</v>
+      </c>
+      <c r="E193" t="n">
+        <v>98190.82000000001</v>
+      </c>
+      <c r="F193" t="n">
+        <v>38</v>
+      </c>
+      <c r="G193" t="n">
+        <v>44</v>
+      </c>
+      <c r="H193" t="n">
+        <v>240042.67</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>产品线A</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>西部区</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>中风险</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>158210.02</v>
+      </c>
+      <c r="E194" t="n">
+        <v>2096792.22</v>
+      </c>
+      <c r="F194" t="n">
+        <v>41</v>
+      </c>
+      <c r="G194" t="n">
+        <v>97</v>
+      </c>
+      <c r="H194" t="n">
+        <v>187822.06</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>产品线D</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>华南区</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>高风险</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>54735.58</v>
+      </c>
+      <c r="E195" t="n">
+        <v>27170.59</v>
+      </c>
+      <c r="F195" t="n">
+        <v>29</v>
+      </c>
+      <c r="G195" t="n">
+        <v>45</v>
+      </c>
+      <c r="H195" t="n">
+        <v>128540.19</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>产品线D</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>华南区</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>中风险</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>1847381.25</v>
+      </c>
+      <c r="E196" t="n">
+        <v>73519.77</v>
+      </c>
+      <c r="F196" t="n">
+        <v>34</v>
+      </c>
+      <c r="G196" t="n">
+        <v>31</v>
+      </c>
+      <c r="H196" t="n">
+        <v>170461.6</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>产品线D</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>西部区</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>中风险</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>118949.53</v>
+      </c>
+      <c r="E197" t="n">
+        <v>1046273.22</v>
+      </c>
+      <c r="F197" t="n">
+        <v>44</v>
+      </c>
+      <c r="G197" t="n">
+        <v>97</v>
+      </c>
+      <c r="H197" t="n">
+        <v>205820.04</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>产品线C</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>西部区</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>低风险</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>91850.96000000001</v>
+      </c>
+      <c r="E198" t="n">
+        <v>724867.04</v>
+      </c>
+      <c r="F198" t="n">
+        <v>20</v>
+      </c>
+      <c r="G198" t="n">
+        <v>41</v>
+      </c>
+      <c r="H198" t="n">
+        <v>212945.78</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>产品线D</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>华北区</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>中风险</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>536292.55</v>
+      </c>
+      <c r="E199" t="n">
+        <v>787789.38</v>
+      </c>
+      <c r="F199" t="n">
+        <v>37</v>
+      </c>
+      <c r="G199" t="n">
+        <v>91</v>
+      </c>
+      <c r="H199" t="n">
+        <v>165241.31</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>产品线D</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>华北区</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>低风险</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>225239.89</v>
+      </c>
+      <c r="E200" t="n">
+        <v>41172.72</v>
+      </c>
+      <c r="F200" t="n">
+        <v>29</v>
+      </c>
+      <c r="G200" t="n">
+        <v>88</v>
+      </c>
+      <c r="H200" t="n">
+        <v>80650.97</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>产品线D</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>华南区</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>低风险</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>759814.36</v>
+      </c>
+      <c r="E201" t="n">
+        <v>637272.95</v>
+      </c>
+      <c r="F201" t="n">
+        <v>40</v>
+      </c>
+      <c r="G201" t="n">
+        <v>99</v>
+      </c>
+      <c r="H201" t="n">
+        <v>178115</v>
       </c>
     </row>
   </sheetData>
